--- a/patient_data/patient_50.xlsx
+++ b/patient_data/patient_50.xlsx
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1667,25 +1667,25 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1744,25 +1744,25 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
